--- a/OPNT Docs/ToDoList.xlsx
+++ b/OPNT Docs/ToDoList.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AST\GitHub\opnt\OPNT Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{721CAAF2-3754-4219-A470-E92D5C169FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA854EF6-2C79-4527-AE14-19555F9CB3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="26775" windowHeight="14970" xr2:uid="{723C31D6-DBE2-4905-A32A-5F15D8044131}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C4C29C9D-7A78-44C9-A11D-2D7769206FE1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Current Plan" sheetId="1" r:id="rId1"/>
-    <sheet name="Future" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,41 +37,95 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Project Plan for OPNT Revamp:</t>
-  </si>
-  <si>
-    <t>To Do List:</t>
-  </si>
-  <si>
-    <t>Introduce the showInitialKWs into the profile screen</t>
-  </si>
-  <si>
-    <t>Convert a post into KWs</t>
-  </si>
-  <si>
-    <t>Convert topicid = 9 into personal trending (so that the 'Trending' interest will only show the user's specific latest actions)</t>
-  </si>
-  <si>
-    <t>Introduce post rating - so that low-quality-posts (lqp) can be auto-filtered</t>
-  </si>
-  <si>
-    <t>Add a trigger to opn_posts that will take a new post's content and insert into opn_p_kw and opn_kw_tags</t>
-  </si>
-  <si>
-    <t>Concerns and keep in mind list</t>
-  </si>
-  <si>
-    <t>1. If the post length &gt; 150 (already change the opn_p_kw.keywords length to 150 or 500 or something)
-2. If the post is just a URL (such as an STP post) - and the URL doesn't have a title ?
-3. If the post already has been created as a KW</t>
-  </si>
-  <si>
-    <t>What is involved: Cart screen: topicid = 9 will have to show the user's own carts in all interests - only the latest KWs that have been selected</t>
-  </si>
-  <si>
-    <t>do we allow the user to change the L/H at this screen ?</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>OPINITO TO DO LIST</t>
+  </si>
+  <si>
+    <t>WORK AREA</t>
+  </si>
+  <si>
+    <t>TO DO DESCRIPTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trending </t>
+  </si>
+  <si>
+    <t>- All the discussions in which I commented</t>
+  </si>
+  <si>
+    <t>- Trending Instream would be all the News items that are only associated with my L/H KWs - without the XYZNews KWs</t>
+  </si>
+  <si>
+    <t>Convert the Trending to My Stuff
+- My Stuff should be all the discussions started by me</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Scraping</t>
+  </si>
+  <si>
+    <t>Complete the coverage of scraping with Interest*Ccode where every day at least 10-20 links are found</t>
+  </si>
+  <si>
+    <t>transfer the py scrapers to dev and prod servers</t>
+  </si>
+  <si>
+    <t>Scrape To Post</t>
+  </si>
+  <si>
+    <t>Scrape to Discussions</t>
+  </si>
+  <si>
+    <t>callSTDbyENTCELEBIND - create replicas of this for all interest*ccode</t>
+  </si>
+  <si>
+    <t>For now, run the callSTDxyz clones manually until the scraping infra is complete
+After that, automate the call of the callSTDxyz to achieve:
+- Automatted discussions and comments
+- sweep the remaining scrapes to be pushed to the STP process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto - L/H to posts </t>
+  </si>
+  <si>
+    <t>Create a script to make the BOTs auto L/H various posts (including discussions)</t>
+  </si>
+  <si>
+    <t>Bot Naming</t>
+  </si>
+  <si>
+    <t>Use the chatgpt-generated usernames to replace the current bot names - so that they sound like real humans</t>
+  </si>
+  <si>
+    <t>Remove NYTimes from scrapers</t>
+  </si>
+  <si>
+    <t>showInitialKWs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rebuild this to make it dynamic - use the latest discussions </t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Search Posts - needs to be duplicated for Search Discussions</t>
+  </si>
+  <si>
+    <t>Concerns, thoughts, pointers etc.</t>
+  </si>
+  <si>
+    <t>What do we show for a new user who has no prior posts or discussions
+(have a CASE in the beginning, if the user output &lt; 10 then use the latest discussions based on the L/H of keywords</t>
+  </si>
+  <si>
+    <t>Remove the forced L of XYZNews kws: make the user go through actual L/H of the latest discussions</t>
+  </si>
+  <si>
+    <t>1, 4, 7 from the above list are pre-req. for this step.</t>
   </si>
 </sst>
 </file>
@@ -82,7 +136,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -143,39 +197,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -227,7 +281,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -338,13 +392,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -353,6 +400,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -417,408 +471,863 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63089A91-F569-4FE6-B68D-FC9D0D264DC9}">
-  <dimension ref="B2:H43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611A9F88-14F0-4055-B432-6D63A6F647FE}">
+  <dimension ref="A2:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="94.5703125" customWidth="1"/>
-    <col min="3" max="3" width="56.85546875" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="4" width="72.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
       <c r="B15" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>8</v>
-      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>4</v>
-      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>6</v>
+      </c>
       <c r="B25" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+    </row>
+    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>9</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A2446C-DAAE-4DF0-BC9A-CDB0EC3CC6D4}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/OPNT Docs/ToDoList.xlsx
+++ b/OPNT Docs/ToDoList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AST\GitHub\opnt\OPNT Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA854EF6-2C79-4527-AE14-19555F9CB3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB05356B-B83A-44AE-B11C-07DC558FF794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C4C29C9D-7A78-44C9-A11D-2D7769206FE1}"/>
+    <workbookView xWindow="-105" yWindow="135" windowWidth="28800" windowHeight="14805" xr2:uid="{C4C29C9D-7A78-44C9-A11D-2D7769206FE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -149,7 +149,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -157,16 +157,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -506,7 +528,7 @@
   <dimension ref="A2:E109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A2" sqref="A2:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,15 +539,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
@@ -535,14 +565,19 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -551,252 +586,252 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="4">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="4">
         <v>3</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="4">
         <v>4</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="4">
         <v>5</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="4">
         <v>6</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="4">
         <v>7</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31" s="4">
         <v>8</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34" s="4">
         <v>9</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="1"/>

--- a/OPNT Docs/ToDoList.xlsx
+++ b/OPNT Docs/ToDoList.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AST\GitHub\opnt\OPNT Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB05356B-B83A-44AE-B11C-07DC558FF794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D99954B-29AB-40AD-895D-C60B03C8689C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="135" windowWidth="28800" windowHeight="14805" xr2:uid="{C4C29C9D-7A78-44C9-A11D-2D7769206FE1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C4C29C9D-7A78-44C9-A11D-2D7769206FE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>OPINITO TO DO LIST</t>
   </si>
@@ -126,6 +125,24 @@
   </si>
   <si>
     <t>1, 4, 7 from the above list are pre-req. for this step.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete posts posts from OPN_POSTS </t>
+  </si>
+  <si>
+    <t>Anything more than 6 months old needs to be removed</t>
+  </si>
+  <si>
+    <t>remove the BOTs from push notifs</t>
+  </si>
+  <si>
+    <t>Push notifs should not include BOTs - unnecessary volume</t>
+  </si>
+  <si>
+    <t>make sure that the latest 5000 users have enough volume in the instream and discussions</t>
+  </si>
+  <si>
+    <t>how to find the users instream and disc counts</t>
   </si>
 </sst>
 </file>
@@ -527,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611A9F88-14F0-4055-B432-6D63A6F647FE}">
   <dimension ref="A2:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C34"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,10 +861,14 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
@@ -860,8 +881,12 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
@@ -872,10 +897,14 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>

--- a/OPNT Docs/ToDoList.xlsx
+++ b/OPNT Docs/ToDoList.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AST\GitHub\opnt\OPNT Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D99954B-29AB-40AD-895D-C60B03C8689C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BD6BDB6-EB2D-4262-934E-2AAC350F8804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C4C29C9D-7A78-44C9-A11D-2D7769206FE1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16800" activeTab="3" xr2:uid="{C4C29C9D-7A78-44C9-A11D-2D7769206FE1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="TO DO" sheetId="2" r:id="rId1"/>
+    <sheet name="AST USERS" sheetId="6" r:id="rId2"/>
+    <sheet name="PROC COMPARE" sheetId="4" r:id="rId3"/>
+    <sheet name="OBJECT COMPARE" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="187">
   <si>
     <t>OPINITO TO DO LIST</t>
   </si>
@@ -143,6 +146,465 @@
   </si>
   <si>
     <t>how to find the users instream and disc counts</t>
+  </si>
+  <si>
+    <t>PROCEDURE</t>
+  </si>
+  <si>
+    <t>ADD_NUSERS_4K1</t>
+  </si>
+  <si>
+    <t>OPN_BULK_CART_CLEANUP</t>
+  </si>
+  <si>
+    <t>searchMultiTopic</t>
+  </si>
+  <si>
+    <t>STP_MONITOR</t>
+  </si>
+  <si>
+    <t>STP_REMAINDER</t>
+  </si>
+  <si>
+    <t>WSRL_DEDUPE</t>
+  </si>
+  <si>
+    <t>WSRL_DEDUPE_ALL</t>
+  </si>
+  <si>
+    <t>WSR_DATE_MGMT</t>
+  </si>
+  <si>
+    <t>WSR_DEDUPE_ALL</t>
+  </si>
+  <si>
+    <t>PROD</t>
+  </si>
+  <si>
+    <t>createSearchKW</t>
+  </si>
+  <si>
+    <t>delUserInterests</t>
+  </si>
+  <si>
+    <t>DIVTEST</t>
+  </si>
+  <si>
+    <t>getUserInterests</t>
+  </si>
+  <si>
+    <t>insertUserInterests</t>
+  </si>
+  <si>
+    <t>OPN_1_CART_CLEANUP</t>
+  </si>
+  <si>
+    <t>reflectCartInterests</t>
+  </si>
+  <si>
+    <t>reflectUserInterests</t>
+  </si>
+  <si>
+    <t>saveUserInterests</t>
+  </si>
+  <si>
+    <t>showFreshContent</t>
+  </si>
+  <si>
+    <t>showInitialDiscussions</t>
+  </si>
+  <si>
+    <t>STD_MANAGER</t>
+  </si>
+  <si>
+    <t>STP_REMAINDER_NONXYZ</t>
+  </si>
+  <si>
+    <t>WSR_DEDUPE</t>
+  </si>
+  <si>
+    <t>WSR_DEDUPE_WSRL</t>
+  </si>
+  <si>
+    <t>ast.commerce@gmail.com</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>astcmcAndrNew</t>
+  </si>
+  <si>
+    <t>c70f2e3d-c2f6-11ee-983c-06945713c8dd</t>
+  </si>
+  <si>
+    <t>ast.opnt1@gmail.com</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>astOpnt1-050423</t>
+  </si>
+  <si>
+    <t>b6216116-eaec-11ed-933d-0680b5bc1ca5</t>
+  </si>
+  <si>
+    <t>ast05022023</t>
+  </si>
+  <si>
+    <t>2c16d9ab-e904-11ed-933d-0680b5bc1ca5</t>
+  </si>
+  <si>
+    <t>ast.common@gmail.com</t>
+  </si>
+  <si>
+    <t>AstG04162023</t>
+  </si>
+  <si>
+    <t>9a9662ea-dcb5-11ed-933d-0680b5bc1ca5</t>
+  </si>
+  <si>
+    <t>ast121022</t>
+  </si>
+  <si>
+    <t>3d425821-4aa9-11ed-bc78-06e322236091</t>
+  </si>
+  <si>
+    <t>SpeakingTruth</t>
+  </si>
+  <si>
+    <t>7313fa44-b2c2-11eb-961c-06500c451eb8</t>
+  </si>
+  <si>
+    <t>astOPNT1U2</t>
+  </si>
+  <si>
+    <t>1bca2909-9cb2-11eb-961c-06500c451eb8</t>
+  </si>
+  <si>
+    <t>GGG</t>
+  </si>
+  <si>
+    <t>astOPNT1U</t>
+  </si>
+  <si>
+    <t>3ef1fb46-9caf-11eb-961c-06500c451eb8</t>
+  </si>
+  <si>
+    <t>ast.chakatya@gmail.com</t>
+  </si>
+  <si>
+    <t>AbhijitTambeWMM</t>
+  </si>
+  <si>
+    <t>08c7833b-529f-11eb-961c-06500c451eb8</t>
+  </si>
+  <si>
+    <t>ASTJupiter</t>
+  </si>
+  <si>
+    <t>a83e75bc-5115-11eb-961c-06500c451eb8</t>
+  </si>
+  <si>
+    <t>astchktProdU</t>
+  </si>
+  <si>
+    <t>a2ddd279-3bde-11eb-961c-06500c451eb8</t>
+  </si>
+  <si>
+    <t>astcmcprod0607</t>
+  </si>
+  <si>
+    <t>51032790-a954-11ea-82d4-06500c451eb8</t>
+  </si>
+  <si>
+    <t>astcmcProd0531</t>
+  </si>
+  <si>
+    <t>49371761-a3b0-11ea-82d4-06500c451eb8</t>
+  </si>
+  <si>
+    <t>astcmnP1</t>
+  </si>
+  <si>
+    <t>1a06f32c-a39b-11ea-82d4-06500c451eb8</t>
+  </si>
+  <si>
+    <t>astcmcgUS1</t>
+  </si>
+  <si>
+    <t>74d9223a-7882-11ea-82d4-06500c451eb8</t>
+  </si>
+  <si>
+    <t>TambeRPHall1986</t>
+  </si>
+  <si>
+    <t>1b2c66dc-756d-11ea-82d4-06500c451eb8</t>
+  </si>
+  <si>
+    <t>astcmc1</t>
+  </si>
+  <si>
+    <t>f7c02081-5f6e-11ea-82d4-06500c451eb8</t>
+  </si>
+  <si>
+    <t>DUPE_CART_ROWS</t>
+  </si>
+  <si>
+    <t>INITIAL_KW_DEV</t>
+  </si>
+  <si>
+    <t>OPN_30DAYS_POST_CONTENT</t>
+  </si>
+  <si>
+    <t>OPN_ADMIN_ACTIONS</t>
+  </si>
+  <si>
+    <t>OPN_ADS_DELETED</t>
+  </si>
+  <si>
+    <t>OPN_AUTH_TOKEN</t>
+  </si>
+  <si>
+    <t>OPN_CART_ARCHIVE</t>
+  </si>
+  <si>
+    <t>OPN_CCODE_SCRAPE_SOURCE</t>
+  </si>
+  <si>
+    <t>OPN_CLEAN_DOMAINS</t>
+  </si>
+  <si>
+    <t>OPN_COMMENTS_DELETED</t>
+  </si>
+  <si>
+    <t>OPN_DELETED_DOMAINS</t>
+  </si>
+  <si>
+    <t>OPN_DUPE_POSTS_MIN</t>
+  </si>
+  <si>
+    <t>OPN_DUPE_POST_BASE</t>
+  </si>
+  <si>
+    <t>OPN_FB_REMOVAL</t>
+  </si>
+  <si>
+    <t>OPN_FUTURE_TOPIC9</t>
+  </si>
+  <si>
+    <t>OPN_INITIAL_KWS_SHOWN</t>
+  </si>
+  <si>
+    <t>OPN_INVITE_ACCEPT_LOG</t>
+  </si>
+  <si>
+    <t>OPN_KILLED_KW</t>
+  </si>
+  <si>
+    <t>OPN_KW_TAGS</t>
+  </si>
+  <si>
+    <t>OPN_KW_TAGS_BK</t>
+  </si>
+  <si>
+    <t>OPN_MAIN_BOTS</t>
+  </si>
+  <si>
+    <t>OPN_NW_STATS</t>
+  </si>
+  <si>
+    <t>OPN_PL_BK</t>
+  </si>
+  <si>
+    <t>OPN_POSTS</t>
+  </si>
+  <si>
+    <t>OPN_POSTS_BKUP</t>
+  </si>
+  <si>
+    <t>OPN_POSTS_DELETED</t>
+  </si>
+  <si>
+    <t>OPN_POSTS_RAW</t>
+  </si>
+  <si>
+    <t>OPN_POST_BOOKMARKS</t>
+  </si>
+  <si>
+    <t>OPN_POST_COMMENTS</t>
+  </si>
+  <si>
+    <t>OPN_POST_COMMENTS_RAW</t>
+  </si>
+  <si>
+    <t>OPN_POST_RETAG_RECORD</t>
+  </si>
+  <si>
+    <t>OPN_POST_SEARCH_T</t>
+  </si>
+  <si>
+    <t>OPN_POST_TO_KW_LOG</t>
+  </si>
+  <si>
+    <t>OPN_PROC_LOG</t>
+  </si>
+  <si>
+    <t>OPN_PUSHL_BK</t>
+  </si>
+  <si>
+    <t>OPN_PUSH_BASE</t>
+  </si>
+  <si>
+    <t>OPN_PUSH_LAUNCH</t>
+  </si>
+  <si>
+    <t>OPN_P_KW</t>
+  </si>
+  <si>
+    <t>OPN_P_KW_BK</t>
+  </si>
+  <si>
+    <t>OPN_RAW_LOGS</t>
+  </si>
+  <si>
+    <t>OPN_REJECTED_COMMENTS</t>
+  </si>
+  <si>
+    <t>OPN_REJECTED_DOMAINS</t>
+  </si>
+  <si>
+    <t>OPN_REJECTED_POSTS</t>
+  </si>
+  <si>
+    <t>OPN_REPORT_CONTENT_TYPES</t>
+  </si>
+  <si>
+    <t>OPN_SCRAPER_MASTER</t>
+  </si>
+  <si>
+    <t>OPN_SCRAPE_STATS</t>
+  </si>
+  <si>
+    <t>OPN_SKIP_WORDS</t>
+  </si>
+  <si>
+    <t>OPN_STP_LOG</t>
+  </si>
+  <si>
+    <t>OPN_STP_MONITOR</t>
+  </si>
+  <si>
+    <t>OPN_TAILORED_CART_LOG</t>
+  </si>
+  <si>
+    <t>OPN_TEMP_TBL</t>
+  </si>
+  <si>
+    <t>OPN_TOPICGROUPS</t>
+  </si>
+  <si>
+    <t>OPN_TOPICS</t>
+  </si>
+  <si>
+    <t>OPN_ULOGIN_HIST</t>
+  </si>
+  <si>
+    <t>OPN_UPA_DELETED</t>
+  </si>
+  <si>
+    <t>OPN_USERLIST</t>
+  </si>
+  <si>
+    <t>OPN_USERTOPIC</t>
+  </si>
+  <si>
+    <t>OPN_USER_BHV_LOG</t>
+  </si>
+  <si>
+    <t>OPN_USER_CARTS</t>
+  </si>
+  <si>
+    <t>OPN_USER_DEVICE_LOG</t>
+  </si>
+  <si>
+    <t>OPN_USER_INTERESTS</t>
+  </si>
+  <si>
+    <t>OPN_USER_KW_REPORT</t>
+  </si>
+  <si>
+    <t>OPN_USER_POST_ACTION</t>
+  </si>
+  <si>
+    <t>OPN_USER_REPORTED_CONTENT</t>
+  </si>
+  <si>
+    <t>OPN_USER_TPOST_ACTION</t>
+  </si>
+  <si>
+    <t>OPN_USER_USER_ACTION</t>
+  </si>
+  <si>
+    <t>OPN_VERBOTEN</t>
+  </si>
+  <si>
+    <t>OPN_WEB_LINKS</t>
+  </si>
+  <si>
+    <t>OPN_XYZNEWS_BOTS</t>
+  </si>
+  <si>
+    <t>OPR_STRAY_POSTS_T</t>
+  </si>
+  <si>
+    <t>PHONE_CODES</t>
+  </si>
+  <si>
+    <t>RETAG_TEMP</t>
+  </si>
+  <si>
+    <t>STP_CALL_SCRIPTS</t>
+  </si>
+  <si>
+    <t>TEMP_KEYID4_CLEANUP</t>
+  </si>
+  <si>
+    <t>WEB_SCRAPE_DEDUPE</t>
+  </si>
+  <si>
+    <t>WEB_SCRAPE_RAW</t>
+  </si>
+  <si>
+    <t>WEB_SCRAPE_RAW_L</t>
+  </si>
+  <si>
+    <t>WSRL_06152024</t>
+  </si>
+  <si>
+    <t>WSR_2</t>
+  </si>
+  <si>
+    <t>WSR_CONVERTED</t>
+  </si>
+  <si>
+    <t>WSR_CONV_TEMP</t>
+  </si>
+  <si>
+    <t>WSR_DEDUPE_LOG</t>
+  </si>
+  <si>
+    <t>WSR_DEDUPE_NDTM</t>
+  </si>
+  <si>
+    <t>WSR_UNTAGGED</t>
+  </si>
+  <si>
+    <t>WSR_UNTAGGED_ARCH</t>
   </si>
 </sst>
 </file>
@@ -158,12 +620,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -193,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -207,6 +675,37 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611A9F88-14F0-4055-B432-6D63A6F647FE}">
   <dimension ref="A2:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,6 +1895,2077 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEFE0D4-32B6-4E46-897F-75BA1FBDC9D0}">
+  <dimension ref="C3:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="15">
+        <v>1022601</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="16">
+        <v>43895.912951388891</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="15">
+        <v>1022658</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="16">
+        <v>43923.942187499997</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="15">
+        <v>1022662</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="16">
+        <v>43927.866064814814</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="15">
+        <v>1022726</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="16">
+        <v>43982.709652777776</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="15">
+        <v>1022727</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="16">
+        <v>43982.814953703702</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="15">
+        <v>1022766</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="16">
+        <v>43989.993263888886</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="15">
+        <v>1023416</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="16">
+        <v>44176.769629629627</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="15">
+        <v>1023432</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="16">
+        <v>44203.767384259256</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="15">
+        <v>1023438</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="16">
+        <v>44205.722870370373</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="15">
+        <v>1023879</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="16">
+        <v>44299.974594907406</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="15">
+        <v>1023880</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="16">
+        <v>44299.988819444443</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="15">
+        <v>1023948</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="16">
+        <v>44328.066874999997</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="15">
+        <v>1026625</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="16">
+        <v>44847.155381944445</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="15">
+        <v>1032123</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="16">
+        <v>45033.01394675926</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="15">
+        <v>1032742</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="16">
+        <v>45048.675509259258</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="15">
+        <v>1032875</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="16">
+        <v>45051.104050925926</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="15">
+        <v>1039072</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="16">
+        <v>45326.032002314816</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61765B45-3C92-4BC2-B87F-7B61C3132362}">
+  <dimension ref="C2:K27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="9">
+        <v>45487.799317129633</v>
+      </c>
+      <c r="F4" s="8">
+        <v>3474</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="7">
+        <v>45487.7969212963</v>
+      </c>
+      <c r="K4" s="6">
+        <v>3474</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="7">
+        <v>45572.001712962963</v>
+      </c>
+      <c r="K5" s="6">
+        <v>3963</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="7">
+        <v>45555.870868055557</v>
+      </c>
+      <c r="K6" s="6">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="7">
+        <v>45568.769444444442</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="7">
+        <v>45562.205208333333</v>
+      </c>
+      <c r="K8" s="6">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="7">
+        <v>45553.747881944444</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="7">
+        <v>45488.006921296299</v>
+      </c>
+      <c r="K10" s="6">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="11">
+        <v>45488.204421296294</v>
+      </c>
+      <c r="F11" s="10">
+        <v>2104</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="14">
+        <v>45488.089548611111</v>
+      </c>
+      <c r="K11" s="13">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="7">
+        <v>45570.907997685186</v>
+      </c>
+      <c r="K12" s="6">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="7">
+        <v>45570.908067129632</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="7">
+        <v>45561.140324074076</v>
+      </c>
+      <c r="K14" s="6">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="9">
+        <v>45580.246689814812</v>
+      </c>
+      <c r="F15" s="8">
+        <v>9550</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="7">
+        <v>45580.654513888891</v>
+      </c>
+      <c r="K15" s="6">
+        <v>9550</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="7">
+        <v>45568.200532407405</v>
+      </c>
+      <c r="K16" s="6">
+        <v>5973</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="7">
+        <v>45562.222928240742</v>
+      </c>
+      <c r="K17" s="6">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="7">
+        <v>45572.131018518521</v>
+      </c>
+      <c r="K18" s="6">
+        <v>7890</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="11">
+        <v>45559.065092592595</v>
+      </c>
+      <c r="F19" s="10">
+        <v>11083</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="14">
+        <v>45558.301736111112</v>
+      </c>
+      <c r="K19" s="13">
+        <v>11057</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="11">
+        <v>45495.157013888886</v>
+      </c>
+      <c r="F20" s="10">
+        <v>5465</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="14">
+        <v>45571.087465277778</v>
+      </c>
+      <c r="K20" s="13">
+        <v>6538</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="7">
+        <v>45571.087962962964</v>
+      </c>
+      <c r="K21" s="6">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="9">
+        <v>45559.059641203705</v>
+      </c>
+      <c r="F22" s="8">
+        <v>3838</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="7">
+        <v>45554.139884259261</v>
+      </c>
+      <c r="K22" s="6">
+        <v>3838</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="9">
+        <v>45564.562025462961</v>
+      </c>
+      <c r="F23" s="8">
+        <v>2780</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" s="7">
+        <v>45564.561550925922</v>
+      </c>
+      <c r="K23" s="6">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C24" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="11">
+        <v>45558.27107638889</v>
+      </c>
+      <c r="F24" s="10">
+        <v>2038</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" s="14">
+        <v>45558.301238425927</v>
+      </c>
+      <c r="K24" s="13">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J25" s="7">
+        <v>45494.86377314815</v>
+      </c>
+      <c r="K25" s="6">
+        <v>3716</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="9">
+        <v>45564.561944444446</v>
+      </c>
+      <c r="F26" s="8">
+        <v>2756</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="7">
+        <v>45564.554328703707</v>
+      </c>
+      <c r="K26" s="6">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J27" s="7">
+        <v>45494.09170138889</v>
+      </c>
+      <c r="K27" s="6">
+        <v>3726</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5729499-E483-4C36-94CD-F33C4A49C2B8}">
+  <dimension ref="C3:G87"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K85" sqref="K85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="6">
+        <v>9</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="6">
+        <v>11</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="6">
+        <v>6</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="6">
+        <v>5</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="6">
+        <v>8</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="6">
+        <v>5</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="6">
+        <v>13</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C13" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="6">
+        <v>4</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C16" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="6">
+        <v>38</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="6">
+        <v>13</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="6">
+        <v>12</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="6">
+        <v>17</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="6">
+        <v>22</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="6">
+        <v>26</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="6">
+        <v>23</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="6">
+        <v>8</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="6">
+        <v>10</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C25" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="6">
+        <v>10</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="6">
+        <v>36</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="F27" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G27" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="6">
+        <v>16</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G28" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="6">
+        <v>32</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" s="6">
+        <v>8</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="6">
+        <v>28</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="6">
+        <v>23</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G32" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="6">
+        <v>5</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G33" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" s="6">
+        <v>12</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C35" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="6">
+        <v>5</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G35" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C36" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="6">
+        <v>5</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G36" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="6">
+        <v>10</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G37" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="6">
+        <v>5</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G38" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39" s="6">
+        <v>12</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G39" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" s="6">
+        <v>34</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G40" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" s="6">
+        <v>30</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G41" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C42" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="6">
+        <v>4</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G42" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="6">
+        <v>15</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G43" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C44" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" s="6">
+        <v>8</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G44" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C45" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="6">
+        <v>17</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G45" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C46" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="6">
+        <v>3</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G46" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C47" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47" s="6">
+        <v>10</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G47" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C48" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="6">
+        <v>6</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G48" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C49" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="6">
+        <v>5</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G49" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C50" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="6">
+        <v>7</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G50" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C51" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" s="6">
+        <v>12</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G51" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C52" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52" s="6">
+        <v>10</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G52" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C53" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D53" s="6">
+        <v>1</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G53" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C54" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54" s="6">
+        <v>4</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G54" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C55" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D55" s="6">
+        <v>3</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G55" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C56" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="6">
+        <v>10</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G56" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C57" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D57" s="6">
+        <v>10</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G57" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C58" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D58" s="6">
+        <v>42</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G58" s="6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C59" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D59" s="6">
+        <v>7</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G59" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C60" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D60" s="6">
+        <v>10</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G60" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C61" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D61" s="6">
+        <v>9</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="G61" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C62" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62" s="6">
+        <v>10</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G62" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C63" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D63" s="6">
+        <v>9</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G63" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C64" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D64" s="6">
+        <v>11</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G64" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C65" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65" s="6">
+        <v>13</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G65" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C66" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D66" s="6">
+        <v>20</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G66" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C67" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D67" s="6">
+        <v>10</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G67" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C68" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D68" s="6">
+        <v>10</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G68" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C69" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D69" s="6">
+        <v>3</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G69" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C70" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D70" s="6">
+        <v>7</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G70" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C71" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D71" s="6">
+        <v>8</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G71" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C72" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D72" s="6">
+        <v>3</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G72" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C73" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D73" s="6">
+        <v>2</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G73" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C74" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D74" s="6">
+        <v>7</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="G74" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C75" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D75" s="6">
+        <v>5</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G75" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C76" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D76" s="6">
+        <v>5</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G76" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C77" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D77" s="6">
+        <v>21</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G77" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C78" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D78" s="6">
+        <v>19</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G78" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C79" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D79" s="6">
+        <v>21</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G79" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F80" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G80" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F81" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G81" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C82" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D82" s="6">
+        <v>19</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G82" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="F83" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G83" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C84" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D84" s="6">
+        <v>3</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G84" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C85" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D85" s="6">
+        <v>6</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="G85" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C86" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D86" s="6">
+        <v>18</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G86" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C87" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D87" s="6">
+        <v>18</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G87" s="6">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
